--- a/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B331642-9680-4700-B647-4E2E2FF66EDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6FC1717-8F78-495B-8B9A-83D0088CFA34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>IsDebit</t>
   </si>
@@ -70,12 +69,15 @@
   </si>
   <si>
     <t>CategoryDescription</t>
+  </si>
+  <si>
+    <t>CategoryTypeId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,10 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DE387-2C6A-4CF9-8F92-17ACD5D3667A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,10 +454,11 @@
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -466,8 +471,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -481,8 +489,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -496,8 +507,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -511,8 +525,11 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -526,8 +543,11 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -541,8 +561,11 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -556,8 +579,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -571,8 +597,11 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -586,8 +615,11 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -600,6 +632,9 @@
       </c>
       <c r="D10" s="1">
         <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>IsDebit</t>
   </si>
@@ -72,6 +72,45 @@
   </si>
   <si>
     <t>CategoryTypeId</t>
+  </si>
+  <si>
+    <t>ParentCategoryId</t>
+  </si>
+  <si>
+    <t>UserDetailId</t>
+  </si>
+  <si>
+    <t>PnP Groceries</t>
+  </si>
+  <si>
+    <t>Karuna Side Hustle</t>
+  </si>
+  <si>
+    <t>Prepaid Elec</t>
+  </si>
+  <si>
+    <t>House Rent</t>
+  </si>
+  <si>
+    <t>Home Loan Repay</t>
+  </si>
+  <si>
+    <t>Personal Loan Repay</t>
+  </si>
+  <si>
+    <t>Loan Shark Installment</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Children Petty Cash</t>
+  </si>
+  <si>
+    <t>Cleaning Equipment</t>
+  </si>
+  <si>
+    <t>Overhead Expenses</t>
   </si>
 </sst>
 </file>
@@ -95,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,16 +157,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,11 +505,12 @@
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -471,11 +523,17 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -489,11 +547,14 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -501,17 +562,20 @@
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C10" si="0">B3</f>
+        <f t="shared" ref="C3:C21" si="0">B3</f>
         <v>Fee</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -525,11 +589,14 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -543,11 +610,14 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -561,11 +631,14 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -579,11 +652,14 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -597,11 +673,14 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -615,11 +694,14 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -633,8 +715,249 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>PnP Groceries</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Karuna Side Hustle</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Prepaid Elec</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>House Rent</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Home Loan Repay</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Personal Loan Repay</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Loan Shark Installment</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Office Supplies</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Children Petty Cash</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cleaning Equipment</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Overhead Expenses</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/Category.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD30130-6923-428D-BD60-1DADA609C020}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,9 +551,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -571,9 +570,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -592,9 +589,7 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -613,9 +608,7 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -634,9 +627,7 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -655,9 +646,7 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -676,9 +665,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>7</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -697,9 +684,7 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>8</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -718,9 +703,7 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>9</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -736,7 +719,9 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="2">
         <v>11</v>
       </c>
@@ -758,7 +743,9 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
       <c r="F12" s="2">
         <v>11</v>
       </c>
@@ -780,7 +767,9 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="2">
         <v>11</v>
       </c>
@@ -802,7 +791,9 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
       <c r="F14" s="2">
         <v>12</v>
       </c>
@@ -824,7 +815,9 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
       <c r="F15" s="2">
         <v>12</v>
       </c>
@@ -846,7 +839,9 @@
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
       <c r="F16" s="2">
         <v>12</v>
       </c>
@@ -868,7 +863,9 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
       <c r="F17" s="2">
         <v>12</v>
       </c>
@@ -893,9 +890,7 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="4">
-        <v>17</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -914,9 +909,7 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
-        <v>18</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -935,9 +928,7 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
-        <v>19</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -956,9 +947,7 @@
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
-        <v>20</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
